--- a/OpenEMRApplication/TestData/OpenEMRData.xlsx
+++ b/OpenEMRApplication/TestData/OpenEMRData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mine\Trainocate\RobotWorkspace\OpenEMRApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0401142A-BC38-4184-90FD-878B2572D0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951045A4-4173-4B35-B1DE-E4434443FEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="885" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>${username}</t>
   </si>
@@ -330,10 +330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -400,20 +400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1380,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
